--- a/doc/regs.xlsx
+++ b/doc/regs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FPGA\redpitayapll\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\redpitaya\redpitayapll\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
   <si>
     <t>0x41200000</t>
   </si>
@@ -41,13 +41,7 @@
     <t>SEL B</t>
   </si>
   <si>
-    <t>For debugging. Eventually fixed</t>
-  </si>
-  <si>
     <t>PID_EN</t>
-  </si>
-  <si>
-    <t>enables the lock</t>
   </si>
   <si>
     <t>N/A</t>
@@ -105,13 +99,92 @@
     <t>0x41220000</t>
   </si>
   <si>
-    <t>f0 * 2^32/125e6</t>
-  </si>
-  <si>
     <t>0x41220008</t>
   </si>
   <si>
-    <t>BW * 2^32/125e6</t>
+    <t>enables the PI loop</t>
+  </si>
+  <si>
+    <t>PLL1</t>
+  </si>
+  <si>
+    <t>FOR BOTH PLLs.
+See on the right</t>
+  </si>
+  <si>
+    <t>SEL A, SEL B select the output signals for output 1, 2, resp.</t>
+  </si>
+  <si>
+    <t>Each output (1,2) can be connected to any of the below combinations:
+"000" = PLL1 (runs on IN1)
+"001" = PLL2 (runs on IN2)
+"010" = PLL1 (on IN1) +PLL2 (on IN2)
+"011" = PLL1 + IN2
+"1xx" = unused (zero at output)</t>
+  </si>
+  <si>
+    <t>0x41230000</t>
+  </si>
+  <si>
+    <t>f0 * 2^32/31.25e6</t>
+  </si>
+  <si>
+    <t>BW * 2^32/31.25e6</t>
+  </si>
+  <si>
+    <t>31..27</t>
+  </si>
+  <si>
+    <t>26..3</t>
+  </si>
+  <si>
+    <t>unsigned</t>
+  </si>
+  <si>
+    <t>Order-1</t>
+  </si>
+  <si>
+    <t>Alpha*2^24</t>
+  </si>
+  <si>
+    <t>Demodulation filter configuration. 
+Order between 1 and 8 ("000" and "111").
+Alpha = exp(-1/TC/122.1kHz) = exp(-2pi fn/122.1kHz).
+TC = 1/(2pi fn) are the filter bandwidth as used in ZI instrum.
+Note, both Order and Alpha are positive, so no 2's complement</t>
+  </si>
+  <si>
+    <t>0x41300000</t>
+  </si>
+  <si>
+    <t>PLL2</t>
+  </si>
+  <si>
+    <t>0x41300008</t>
+  </si>
+  <si>
+    <t>0x41310000</t>
+  </si>
+  <si>
+    <t>0x41310008</t>
+  </si>
+  <si>
+    <t>0x41320000</t>
+  </si>
+  <si>
+    <t>0x41320008</t>
+  </si>
+  <si>
+    <t>0x41330000</t>
+  </si>
+  <si>
+    <t>For the weights W_A, W_B:</t>
+  </si>
+  <si>
+    <t>W_A = A sin(phi) , W_B = A sin(phi)</t>
+  </si>
+  <si>
+    <t>Then the output wave is A sin(wt+phi)</t>
   </si>
 </sst>
 </file>
@@ -235,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,16 +325,10 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -273,10 +340,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -285,13 +367,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -574,29 +665,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="2"/>
+    <col min="3" max="3" width="13.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.86328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="2"/>
+    <col min="8" max="8" width="57.796875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4">
         <v>7</v>
@@ -611,223 +707,611 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="25"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="H3" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="11"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="24"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="25"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="15" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="19" t="s">
+      <c r="F8" s="11"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="25"/>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="19" t="s">
+      <c r="F11" s="11"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="25"/>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="13"/>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="19" t="s">
+      <c r="F14" s="11"/>
+      <c r="H14" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="B15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="25"/>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="25"/>
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="H20" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="25"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="14">
+        <v>7</v>
+      </c>
+      <c r="D25" s="14">
+        <v>6</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="25"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="24"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="25"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="25"/>
+      <c r="B34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="25"/>
+      <c r="B37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="25"/>
+      <c r="B40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="25"/>
+      <c r="B43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="25"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="30">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H3:H11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C6:D6"/>
@@ -835,8 +1319,13 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="78" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>